--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Github\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19DBC165-CF19-4995-9AC8-BC2DBA55A6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235CEC4C-D658-451B-8409-A9C21A20BB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t xml:space="preserve">Date	</t>
   </si>
@@ -65,12 +65,36 @@
   </si>
   <si>
     <t>Created a Jamboard and suggested ideas for the order and topics of the presentation, continued working on the Github Pages document.</t>
+  </si>
+  <si>
+    <t>28.10.2022</t>
+  </si>
+  <si>
+    <t>21.10.2022</t>
+  </si>
+  <si>
+    <t>04.11.2022</t>
+  </si>
+  <si>
+    <t>Migrated from the ESP 32 S3 feather -&gt; Arduino Uno +  LCD 1602 + Managed to turn it on by using a potentiometer after hours of it not working</t>
+  </si>
+  <si>
+    <t>Migrated from the ESP 32 S3 feather -&gt; Arduino Uno + Simple LCD (I2C) +  Managed to turn it on by using the integrated potentiometer after hours of seeing that the LCD has light but doesn't show text</t>
+  </si>
+  <si>
+    <t>We tried getting the LCD to work, no success as we had problems when trying to obtain 5v</t>
+  </si>
+  <si>
+    <t>Managed to make the sender + receiver work after a day</t>
+  </si>
+  <si>
+    <t>Number of worked hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,9 +940,10 @@
     <col min="1" max="1" width="35.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="114.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +953,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -939,8 +967,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -950,8 +981,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -961,8 +995,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -972,8 +1009,11 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -983,8 +1023,11 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -993,6 +1036,93 @@
       </c>
       <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
